--- a/biology/Botanique/Hirtella_racemosa/Hirtella_racemosa.xlsx
+++ b/biology/Botanique/Hirtella_racemosa/Hirtella_racemosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hirtella racemosa est une espèce de plantes à fleurs de la famille des Chrysobalanaceae (anciennement des Rosaceae).
 C'est un arbre.
-En Guyane, Hirtella racemosa est connu sous les noms de Bois gaulette[3], ou encore Dibo, Dur bois, Gaulette, Gris-gris, Petite gaulette rouge (Créole)[4].
-Dans le Pernambouc (Brésil), il est communément appelé Ajururana, Ajirú-do-mato, Murtinha[5].
-On appelle la variété H. racemosa var. hexandra Jicaquillo au Venezuela[6] et Ajirú-do-mato, Ajururana, Murtinha dans le Pernambouc (Brésil)[7].
-La variété H. racemosa var. racemosa est nommée Carbonero, Ceniza negra, Jicaquillo, Picapica morada au Venezuela[6]. Au Guyana, c'est Counter (Créole du Guyana), Bokoboko tokon (Arawak), Kupesimirang (Caribe)[8].
+En Guyane, Hirtella racemosa est connu sous les noms de Bois gaulette, ou encore Dibo, Dur bois, Gaulette, Gris-gris, Petite gaulette rouge (Créole).
+Dans le Pernambouc (Brésil), il est communément appelé Ajururana, Ajirú-do-mato, Murtinha.
+On appelle la variété H. racemosa var. hexandra Jicaquillo au Venezuela et Ajirú-do-mato, Ajururana, Murtinha dans le Pernambouc (Brésil).
+La variété H. racemosa var. racemosa est nommée Carbonero, Ceniza negra, Jicaquillo, Picapica morada au Venezuela. Au Guyana, c'est Counter (Créole du Guyana), Bokoboko tokon (Arawak), Kupesimirang (Caribe).
 </t>
         </is>
       </c>
@@ -516,9 +528,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Hirtella racemosa est un arbuste ou un petit arbre atteignant jusqu'à 6 m.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hirtella racemosa est un arbuste ou un petit arbre atteignant jusqu'à 6 m.
 Les jeunes rameaux, les jeunes feuilles et les inflorescences sont pubérulents, couverts de poils jaunâtres à blanchâtres (tomentelleux à glabres ou légèrement hispides).
 Les feuilles sont portées sur des pétioles longs de 1 à 3 mm, cylindriques, non glandulaires, glabres à pubérulents.
 Le limbes est de forme elliptique, oblongue, ovale à lancéolée, mesurant (3,5)7-16,5(-19,5) x 1,5-7 cm, sub-coriace, glabre ou légèrement apprimé à pubescence abaxiale, luisant, à apex acuminé (acumen long de 1-14(-25) mm), à base atténuée, arrondie, subcordée à cunéiforme, sans domaties.
@@ -537,12 +551,47 @@
 Le fruit est une drupe de forme ellipsoïde à oblongue-obovoïde, avec des poils épars, de couleur rougeâtre, atteignant 15 × 6 mm.
 L'épicarpe est lisse, glabre.
 Le mésocarpe est fin, charnu.
-L'endocarpe est fin, dur, osseux, hirsute à l'intérieur[4],[6],[9],[10].
-taxons infra-spécifiques
-Hirtella racemosa comprend 3 variétés reconnues :
-Hirtella racemosa var. hexandra (Willdenow ex Roemer &amp; Schultes) Prance porte des feuilles longues de 3,5–9,5(–11,5) cm, à base généralement arrondie à cunéiforme (très rarement subcordée), avec la nervation généralement bien réticulée au-dessus. Les pédicelles sont minces et longs de 4–10,5 mm, et dépourvus de glandes. Les bractéoles portent de petites glandes planes sessiles, ou seulement une glande apicale[6],[10],
-Hirtella racemosa var. hispida Prance porte de jeunes branches hispides et la base de l'inflorescence. Le limbe des feuilles mesure 15-22 x 6-7,5 cm. Les pédicelles sont fins, et longs de 8 à 12 mm[10],
-Hirtella racemosa Lam. var. racemosa est un petit arbre, portant des feuilles simples, alternes, à longues stipules caduques, longues de 7–20 cm, à base généralement subcordées (moins souvent arrondies à cunéiformes), avec la nervation peu visible au-dessus. Les pédicelles sont généralement non glanduleux, épais, longs de 1,5–7(–9) mm. Les bractéoles portent le plus souvent de grosses glandes sessiles concaves ou réduites à une seule grosse glande concave, (moins fréquemment les glandes plus petites et planes, voire les bractéoles à glandes apicales). Ses petites fleurs, à corolle rose blanchâtre, avec de longues étamines, persistantes, rose foncé. Ses fruits sont des drupe charnue, noires[6],[8],[10].</t>
+L'endocarpe est fin, dur, osseux, hirsute à l'intérieur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Hirtella_racemosa</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hirtella_racemosa</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>taxons infra-spécifiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Hirtella racemosa comprend 3 variétés reconnues :
+Hirtella racemosa var. hexandra (Willdenow ex Roemer &amp; Schultes) Prance porte des feuilles longues de 3,5–9,5(–11,5) cm, à base généralement arrondie à cunéiforme (très rarement subcordée), avec la nervation généralement bien réticulée au-dessus. Les pédicelles sont minces et longs de 4–10,5 mm, et dépourvus de glandes. Les bractéoles portent de petites glandes planes sessiles, ou seulement une glande apicale
+Hirtella racemosa var. hispida Prance porte de jeunes branches hispides et la base de l'inflorescence. Le limbe des feuilles mesure 15-22 x 6-7,5 cm. Les pédicelles sont fins, et longs de 8 à 12 mm,
+Hirtella racemosa Lam. var. racemosa est un petit arbre, portant des feuilles simples, alternes, à longues stipules caduques, longues de 7–20 cm, à base généralement subcordées (moins souvent arrondies à cunéiformes), avec la nervation peu visible au-dessus. Les pédicelles sont généralement non glanduleux, épais, longs de 1,5–7(–9) mm. Les bractéoles portent le plus souvent de grosses glandes sessiles concaves ou réduites à une seule grosse glande concave, (moins fréquemment les glandes plus petites et planes, voire les bractéoles à glandes apicales). Ses petites fleurs, à corolle rose blanchâtre, avec de longues étamines, persistantes, rose foncé. Ses fruits sont des drupe charnue, noires.</t>
         </is>
       </c>
     </row>
